--- a/Data/cleaned/Manufacturing.xlsx
+++ b/Data/cleaned/Manufacturing.xlsx
@@ -519,8 +519,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>1990</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
@@ -554,8 +556,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1991</v>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>31.7099990844727</v>
@@ -593,8 +597,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>1992</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>31.7099990844727</v>
@@ -632,8 +638,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>1993</v>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>31.6700000762939</v>
@@ -671,8 +679,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>1994</v>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>31.7199993133545</v>
@@ -710,8 +720,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>1995</v>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>31.2199993133545</v>
@@ -749,8 +761,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>1996</v>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>30.6100006103516</v>
@@ -792,8 +806,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>1997</v>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>30.3199996948242</v>
@@ -831,8 +847,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>1998</v>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>30.1299991607666</v>
@@ -874,8 +892,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>1999</v>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>29.7600002288818</v>
@@ -913,8 +933,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>2000</v>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>30.4699993133545</v>
@@ -958,8 +980,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>2001</v>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>29.5900001525879</v>
@@ -999,8 +1023,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>2002</v>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>29.9200000762939</v>
@@ -1044,8 +1070,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>2003</v>
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>29.9500007629395</v>
@@ -1085,8 +1113,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>2004</v>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>30.6800003051758</v>
@@ -1130,8 +1160,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>2005</v>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>30.6499996185303</v>
@@ -1171,8 +1203,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>2006</v>
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>31.1800003051758</v>
@@ -1218,8 +1252,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>2007</v>
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>31.1499996185303</v>
@@ -1261,8 +1297,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>2008</v>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>31.6599998474121</v>
@@ -1308,8 +1346,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>2009</v>
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>31.2700004577637</v>
@@ -1351,8 +1391,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>2010</v>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>31.1000003814697</v>
@@ -1398,8 +1440,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>2011</v>
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
       </c>
       <c r="B23" t="n">
         <v>30.9699993133545</v>
@@ -1443,8 +1487,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>2012</v>
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
       </c>
       <c r="B24" t="n">
         <v>30.9599990844727</v>
@@ -1486,8 +1532,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>2013</v>
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
       </c>
       <c r="B25" t="n">
         <v>30.6299991607666</v>
@@ -1531,8 +1579,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>2014</v>
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
       </c>
       <c r="B26" t="n">
         <v>30.5300006866455</v>
@@ -1574,8 +1624,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>2015</v>
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
       </c>
       <c r="B27" t="n">
         <v>29.3400001525879</v>
@@ -1619,8 +1671,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>2016</v>
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
       </c>
       <c r="B28" t="n">
         <v>29.1700000762939</v>
@@ -1662,8 +1716,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>2017</v>
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="B29" t="n">
         <v>29.6000003814697</v>
@@ -1707,8 +1763,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>2018</v>
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B30" t="n">
         <v>30.0900001525879</v>
@@ -1750,8 +1808,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>2019</v>
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B31" t="n">
         <v>29.1700000762939</v>
@@ -1795,8 +1855,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>2020</v>
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
@@ -1834,8 +1896,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>2021</v>
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
@@ -1959,8 +2023,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>1960</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
@@ -1988,8 +2054,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1961</v>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
@@ -2019,8 +2087,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>1962</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
@@ -2050,8 +2120,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>1963</v>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
@@ -2081,8 +2153,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>1964</v>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
@@ -2112,8 +2186,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>1965</v>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
@@ -2143,8 +2219,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>1966</v>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
@@ -2174,8 +2252,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>1967</v>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>1967</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
@@ -2205,8 +2285,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>1968</v>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
@@ -2236,8 +2318,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>1969</v>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>1969</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
@@ -2267,8 +2351,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>1970</v>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
@@ -2302,8 +2388,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>1971</v>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
@@ -2337,8 +2425,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>1972</v>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
@@ -2372,8 +2462,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>1973</v>
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
@@ -2407,8 +2499,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>1974</v>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
@@ -2442,8 +2536,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>1975</v>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
@@ -2477,8 +2573,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>1976</v>
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
@@ -2512,8 +2610,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>1977</v>
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
@@ -2547,8 +2647,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>1978</v>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
@@ -2582,8 +2684,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>1979</v>
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
@@ -2617,8 +2721,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>1980</v>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
@@ -2652,8 +2758,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>1981</v>
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
@@ -2687,8 +2795,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>1982</v>
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
@@ -2722,8 +2832,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>1983</v>
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
@@ -2757,8 +2869,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>1984</v>
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
@@ -2792,8 +2906,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>1985</v>
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
@@ -2827,8 +2943,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>1986</v>
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
@@ -2862,8 +2980,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>1987</v>
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
@@ -2897,8 +3017,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>1988</v>
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
@@ -2932,8 +3054,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>1989</v>
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
@@ -2967,8 +3091,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>1990</v>
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
@@ -3002,8 +3128,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>1991</v>
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
       </c>
       <c r="B33" t="n">
         <v>27.5</v>
@@ -3041,8 +3169,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>1992</v>
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
       </c>
       <c r="B34" t="n">
         <v>27.2700004577637</v>
@@ -3080,8 +3210,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>1993</v>
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
       </c>
       <c r="B35" t="n">
         <v>27.4099998474121</v>
@@ -3119,8 +3251,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>1994</v>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
       </c>
       <c r="B36" t="n">
         <v>27.7099990844727</v>
@@ -3158,8 +3292,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>1995</v>
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
       </c>
       <c r="B37" t="n">
         <v>27.6100006103516</v>
@@ -3197,8 +3333,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>1996</v>
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
       </c>
       <c r="B38" t="n">
         <v>27.7199993133545</v>
@@ -3236,8 +3374,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>1997</v>
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
       </c>
       <c r="B39" t="n">
         <v>27.8799991607666</v>
@@ -3275,8 +3415,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>1998</v>
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
       </c>
       <c r="B40" t="n">
         <v>28.0400009155273</v>
@@ -3314,8 +3456,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>1999</v>
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
       </c>
       <c r="B41" t="n">
         <v>27.0699996948242</v>
@@ -3353,8 +3497,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>2000</v>
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
       </c>
       <c r="B42" t="n">
         <v>27.1499996185303</v>
@@ -3398,8 +3544,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>2001</v>
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
       </c>
       <c r="B43" t="n">
         <v>27.1700000762939</v>
@@ -3443,8 +3591,10 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>2002</v>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
       </c>
       <c r="B44" t="n">
         <v>28.2000007629395</v>
@@ -3488,8 +3638,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>2003</v>
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
       </c>
       <c r="B45" t="n">
         <v>27.2999992370605</v>
@@ -3533,8 +3685,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>2004</v>
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
       </c>
       <c r="B46" t="n">
         <v>27.5</v>
@@ -3578,8 +3732,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>2005</v>
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="B47" t="n">
         <v>27.9300003051758</v>
@@ -3623,8 +3779,10 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>2006</v>
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
       </c>
       <c r="B48" t="n">
         <v>28.1000003814697</v>
@@ -3668,8 +3826,10 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>2007</v>
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
       </c>
       <c r="B49" t="n">
         <v>28.9400005340576</v>
@@ -3713,8 +3873,10 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>2008</v>
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
       </c>
       <c r="B50" t="n">
         <v>29.9500007629395</v>
@@ -3758,8 +3920,10 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>2009</v>
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
       </c>
       <c r="B51" t="n">
         <v>29.3199996948242</v>
@@ -3805,8 +3969,10 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>2010</v>
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="B52" t="n">
         <v>29.4799995422363</v>
@@ -3852,8 +4018,10 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>2011</v>
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
       </c>
       <c r="B53" t="n">
         <v>29.5</v>
@@ -3899,8 +4067,10 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>2012</v>
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
       </c>
       <c r="B54" t="n">
         <v>30.3700008392334</v>
@@ -3946,8 +4116,10 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>2013</v>
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
       </c>
       <c r="B55" t="n">
         <v>30.5499992370605</v>
@@ -3993,8 +4165,10 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>2014</v>
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
       </c>
       <c r="B56" t="n">
         <v>30.7399997711182</v>
@@ -4040,8 +4214,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>2015</v>
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
       </c>
       <c r="B57" t="n">
         <v>29.7700004577637</v>
@@ -4085,8 +4261,10 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>2016</v>
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
       </c>
       <c r="B58" t="n">
         <v>28.2000007629395</v>
@@ -4130,8 +4308,10 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>2017</v>
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="B59" t="n">
         <v>27.7000007629395</v>
@@ -4175,8 +4355,10 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>2018</v>
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B60" t="n">
         <v>27.0900001525879</v>
@@ -4220,8 +4402,10 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>2019</v>
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B61" t="n">
         <v>26.9500007629395</v>
@@ -4265,8 +4449,10 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>2020</v>
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
@@ -4304,8 +4490,10 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>2021</v>
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
@@ -4429,8 +4617,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>1997</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>32.6699981689453</v>
@@ -4472,8 +4662,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1998</v>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>32.8899993896484</v>
@@ -4515,8 +4707,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>1999</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>32.8899993896484</v>
@@ -4558,8 +4752,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>2000</v>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>33.2900009155273</v>
@@ -4603,8 +4799,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>2001</v>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>33.0900001525879</v>
@@ -4648,8 +4846,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>2002</v>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>33.3600006103516</v>
@@ -4693,8 +4893,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>2003</v>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>33.1100006103516</v>
@@ -4738,8 +4940,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>2004</v>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>33.2900009155273</v>
@@ -4783,8 +4987,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>2005</v>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>33.0499992370605</v>
@@ -4828,8 +5034,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>2006</v>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>32.3499984741211</v>
@@ -4873,8 +5081,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>2007</v>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>31.8500003814697</v>
@@ -4918,8 +5128,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>2008</v>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>31.8999996185303</v>
@@ -4963,8 +5175,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>2009</v>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>30.6399993896484</v>
@@ -5008,8 +5222,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>2010</v>
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>30.6800003051758</v>
@@ -5053,8 +5269,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>2011</v>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>30.4599990844727</v>
@@ -5098,8 +5316,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>2012</v>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>30.8199996948242</v>
@@ -5143,8 +5363,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>2013</v>
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>30.8400001525879</v>
@@ -5188,8 +5410,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>2014</v>
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>30.6299991607666</v>
@@ -5233,8 +5457,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>2015</v>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>30.1599998474121</v>
@@ -5278,8 +5504,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>2016</v>
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>29.7999992370605</v>
@@ -5323,8 +5551,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>2017</v>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>29.5400009155273</v>
@@ -5370,8 +5600,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>2018</v>
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B23" t="n">
         <v>29.6399993896484</v>
@@ -5513,8 +5745,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>2004</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>23.0200004577637</v>
@@ -5558,8 +5792,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>2005</v>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>24.4899997711182</v>
@@ -5603,8 +5839,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2006</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>26.0599994659424</v>
@@ -5648,8 +5886,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>2007</v>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>27.7999992370605</v>
@@ -5693,8 +5933,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>2008</v>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>28.3999996185303</v>
@@ -5738,8 +5980,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>2009</v>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>29.25</v>
@@ -5783,8 +6027,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>2010</v>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>30.3600006103516</v>
@@ -5830,8 +6076,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>2011</v>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>31.3500003814697</v>
@@ -5877,8 +6125,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>2012</v>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>32.3199996948242</v>
@@ -5924,8 +6174,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>2013</v>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>32.310001373291</v>
@@ -5971,8 +6223,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>2014</v>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>32.3199996948242</v>
@@ -6018,8 +6272,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>2015</v>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>31.8099994659424</v>
@@ -6065,8 +6321,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>2016</v>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>31.6299991607666</v>
@@ -6112,8 +6370,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>2017</v>
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>31.1599998474121</v>
@@ -6159,8 +6419,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>2018</v>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>31.5799999237061</v>
@@ -6206,8 +6468,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>2019</v>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>30.8299999237061</v>
@@ -6253,8 +6517,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>2020</v>
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
@@ -6296,8 +6562,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>2021</v>
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
@@ -6419,8 +6687,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>1990</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
@@ -6454,8 +6724,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1991</v>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>41.3400001525879</v>
@@ -6493,8 +6765,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>1992</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>41</v>
@@ -6532,8 +6806,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>1993</v>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>40.6599998474121</v>
@@ -6571,8 +6847,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>1994</v>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>38.939998626709</v>
@@ -6610,8 +6888,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>1995</v>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>38.4000015258789</v>
@@ -6649,8 +6929,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>1996</v>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>38.6599998474121</v>
@@ -6692,8 +6974,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>1997</v>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>38.1699981689453</v>
@@ -6735,8 +7019,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>1998</v>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>37.9099998474121</v>
@@ -6778,8 +7064,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>1999</v>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>36.8899993896484</v>
@@ -6821,8 +7109,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>2000</v>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>36.2200012207031</v>
@@ -6866,8 +7156,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>2001</v>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>35.7700004577637</v>
@@ -6911,8 +7203,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>2002</v>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>35.0400009155273</v>
@@ -6956,8 +7250,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>2003</v>
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>34.4000015258789</v>
@@ -7001,8 +7297,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>2004</v>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>33.1199989318848</v>
@@ -7046,8 +7344,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>2005</v>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>33.1100006103516</v>
@@ -7091,8 +7391,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>2006</v>
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>32.7999992370605</v>
@@ -7138,8 +7440,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>2007</v>
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>32.9700012207031</v>
@@ -7185,8 +7489,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>2008</v>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>32.7099990844727</v>
@@ -7232,8 +7538,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>2009</v>
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>29.9799995422363</v>
@@ -7279,8 +7587,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>2010</v>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>29.4500007629395</v>
@@ -7326,8 +7636,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>2011</v>
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
       </c>
       <c r="B23" t="n">
         <v>29.2999992370605</v>
@@ -7373,8 +7685,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>2012</v>
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
       </c>
       <c r="B24" t="n">
         <v>28.9400005340576</v>
@@ -7420,8 +7734,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>2013</v>
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
       </c>
       <c r="B25" t="n">
         <v>28.6000003814697</v>
@@ -7467,8 +7783,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>2014</v>
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
       </c>
       <c r="B26" t="n">
         <v>28.5699996948242</v>
@@ -7514,8 +7832,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>2015</v>
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
       </c>
       <c r="B27" t="n">
         <v>28.2299995422363</v>
@@ -7561,8 +7881,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>2016</v>
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
       </c>
       <c r="B28" t="n">
         <v>27.9599990844727</v>
@@ -7608,8 +7930,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>2017</v>
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="B29" t="n">
         <v>27.5799999237061</v>
@@ -7655,8 +7979,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>2018</v>
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B30" t="n">
         <v>27.5300006866455</v>
@@ -7702,8 +8028,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>2019</v>
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B31" t="n">
         <v>27.3400001525879</v>
@@ -7749,8 +8077,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>2020</v>
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
@@ -7788,8 +8118,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>2021</v>
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
@@ -7913,8 +8245,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>1960</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
@@ -7942,8 +8276,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1961</v>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
@@ -7973,8 +8309,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>1962</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
@@ -8004,8 +8342,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>1963</v>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
@@ -8035,8 +8375,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>1964</v>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
@@ -8066,8 +8408,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>1965</v>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
@@ -8097,8 +8441,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>1966</v>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
@@ -8128,8 +8474,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>1967</v>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>1967</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
@@ -8159,8 +8507,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>1968</v>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
@@ -8190,8 +8540,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>1969</v>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>1969</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
@@ -8221,8 +8573,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>1970</v>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
@@ -8256,8 +8610,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>1971</v>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
@@ -8291,8 +8647,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>1972</v>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
@@ -8326,8 +8684,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>1973</v>
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
@@ -8361,8 +8721,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>1974</v>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
@@ -8396,8 +8758,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>1975</v>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
@@ -8431,8 +8795,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>1976</v>
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
@@ -8466,8 +8832,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>1977</v>
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
@@ -8501,8 +8869,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>1978</v>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
@@ -8536,8 +8906,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>1979</v>
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
@@ -8571,8 +8943,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>1980</v>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
@@ -8606,8 +8980,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>1981</v>
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
@@ -8641,8 +9017,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>1982</v>
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
@@ -8676,8 +9054,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>1983</v>
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
@@ -8711,8 +9091,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>1984</v>
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
@@ -8746,8 +9128,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>1985</v>
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
@@ -8781,8 +9165,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>1986</v>
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
@@ -8816,8 +9202,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>1987</v>
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
@@ -8851,8 +9239,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>1988</v>
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
@@ -8886,8 +9276,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>1989</v>
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
@@ -8921,8 +9313,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>1990</v>
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
@@ -8956,8 +9350,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>1991</v>
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
       </c>
       <c r="B33" t="n">
         <v>16.3899993896484</v>
@@ -8995,8 +9391,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>1992</v>
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
       </c>
       <c r="B34" t="n">
         <v>16.4699993133545</v>
@@ -9034,8 +9432,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>1993</v>
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
       </c>
       <c r="B35" t="n">
         <v>16.5100002288818</v>
@@ -9073,8 +9473,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>1994</v>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
       </c>
       <c r="B36" t="n">
         <v>16.7099990844727</v>
@@ -9112,8 +9514,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>1995</v>
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
       </c>
       <c r="B37" t="n">
         <v>16.9400005340576</v>
@@ -9151,8 +9555,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>1996</v>
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
       </c>
       <c r="B38" t="n">
         <v>17.1599998474121</v>
@@ -9194,8 +9600,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>1997</v>
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
       </c>
       <c r="B39" t="n">
         <v>17.2000007629395</v>
@@ -9235,8 +9643,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>1998</v>
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
       </c>
       <c r="B40" t="n">
         <v>17.3600006103516</v>
@@ -9278,8 +9688,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>1999</v>
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
       </c>
       <c r="B41" t="n">
         <v>17.7399997711182</v>
@@ -9319,8 +9731,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>2000</v>
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
       </c>
       <c r="B42" t="n">
         <v>17.9300003051758</v>
@@ -9364,8 +9778,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>2001</v>
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
       </c>
       <c r="B43" t="n">
         <v>18.2600002288818</v>
@@ -9407,8 +9823,10 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>2002</v>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
       </c>
       <c r="B44" t="n">
         <v>18.5599994659424</v>
@@ -9450,8 +9868,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>2003</v>
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
       </c>
       <c r="B45" t="n">
         <v>19.1900005340576</v>
@@ -9493,8 +9913,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>2004</v>
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
       </c>
       <c r="B46" t="n">
         <v>20.0599994659424</v>
@@ -9536,8 +9958,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>2005</v>
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="B47" t="n">
         <v>20.6599998474121</v>
@@ -9581,8 +10005,10 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>2006</v>
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
       </c>
       <c r="B48" t="n">
         <v>21.2999992370605</v>
@@ -9626,8 +10052,10 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>2007</v>
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
       </c>
       <c r="B49" t="n">
         <v>22.0200004577637</v>
@@ -9671,8 +10099,10 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>2008</v>
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
       </c>
       <c r="B50" t="n">
         <v>22.2999992370605</v>
@@ -9716,8 +10146,10 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>2009</v>
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
       </c>
       <c r="B51" t="n">
         <v>22.9699993133545</v>
@@ -9761,8 +10193,10 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>2010</v>
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="B52" t="n">
         <v>23.6800003051758</v>
@@ -9808,8 +10242,10 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>2011</v>
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
       </c>
       <c r="B53" t="n">
         <v>24.7900009155273</v>
@@ -9853,8 +10289,10 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>2012</v>
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
       </c>
       <c r="B54" t="n">
         <v>25.8600006103516</v>
@@ -9898,8 +10336,10 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>2013</v>
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
       </c>
       <c r="B55" t="n">
         <v>25.9400005340576</v>
@@ -9943,8 +10383,10 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>2014</v>
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
       </c>
       <c r="B56" t="n">
         <v>26.1000003814697</v>
@@ -9988,8 +10430,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>2015</v>
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
       </c>
       <c r="B57" t="n">
         <v>26.25</v>
@@ -10035,8 +10479,10 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>2016</v>
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
       </c>
       <c r="B58" t="n">
         <v>26.5300006866455</v>
@@ -10080,8 +10526,10 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>2017</v>
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="B59" t="n">
         <v>26.7299995422363</v>
@@ -10125,8 +10573,10 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>2018</v>
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B60" t="n">
         <v>26.8899993896484</v>
@@ -10172,8 +10622,10 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>2019</v>
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B61" t="n">
         <v>27.0699996948242</v>
@@ -10215,8 +10667,10 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>2020</v>
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
@@ -10254,8 +10708,10 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>2021</v>
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
@@ -10379,8 +10835,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>1994</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>39.8400001525879</v>
@@ -10418,8 +10876,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1995</v>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>39.4900016784668</v>
@@ -10457,8 +10917,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>1996</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>39.3400001525879</v>
@@ -10500,8 +10962,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>1997</v>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>39.3899993896484</v>
@@ -10543,8 +11007,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>1998</v>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>38.6599998474121</v>
@@ -10586,8 +11052,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>1999</v>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>38.4700012207031</v>
@@ -10629,8 +11097,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>2000</v>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>38.1199989318848</v>
@@ -10674,8 +11144,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>2001</v>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>37.5099983215332</v>
@@ -10719,8 +11191,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>2002</v>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>36.9199981689453</v>
@@ -10764,8 +11238,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>2003</v>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>36.2099990844727</v>
@@ -10809,8 +11285,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>2004</v>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>35.5499992370605</v>
@@ -10854,8 +11332,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>2005</v>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>35.25</v>
@@ -10899,8 +11379,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>2006</v>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>35.1199989318848</v>
@@ -10944,8 +11426,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>2007</v>
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>34.9500007629395</v>
@@ -10991,8 +11475,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>2008</v>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>34.75</v>
@@ -11038,8 +11524,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>2009</v>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>33.9199981689453</v>
@@ -11085,8 +11573,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>2010</v>
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>33.3300018310547</v>
@@ -11132,8 +11622,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>2011</v>
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>33.1599998474121</v>
@@ -11179,8 +11671,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>2012</v>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>33.189998626709</v>
@@ -11226,8 +11720,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>2013</v>
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>33.3199996948242</v>
@@ -11273,8 +11769,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>2014</v>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>33.0499992370605</v>
@@ -11320,8 +11818,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>2015</v>
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
       </c>
       <c r="B23" t="n">
         <v>32.8800010681152</v>
@@ -11367,8 +11867,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>2016</v>
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
       </c>
       <c r="B24" t="n">
         <v>32.7000007629395</v>
@@ -11414,8 +11916,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>2017</v>
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="B25" t="n">
         <v>32.7299995422363</v>
@@ -11461,8 +11965,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>2018</v>
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B26" t="n">
         <v>32.5200004577637</v>
@@ -11508,8 +12014,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>2019</v>
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B27" t="n">
         <v>32.3600006103516</v>
@@ -11555,8 +12063,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>2020</v>
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
@@ -11694,8 +12204,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>1960</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
@@ -11723,8 +12235,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1961</v>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
@@ -11754,8 +12268,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>1962</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
@@ -11785,8 +12301,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>1963</v>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
@@ -11816,8 +12334,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>1964</v>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
@@ -11847,8 +12367,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>1965</v>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
@@ -11878,8 +12400,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>1966</v>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
@@ -11909,8 +12433,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>1967</v>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>1967</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
@@ -11940,8 +12466,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>1968</v>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
@@ -11971,8 +12499,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>1969</v>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>1969</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
@@ -12002,8 +12532,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>1970</v>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
@@ -12037,8 +12569,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>1971</v>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
@@ -12072,8 +12606,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>1972</v>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
@@ -12107,8 +12643,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>1973</v>
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
@@ -12142,8 +12680,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>1974</v>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
@@ -12177,8 +12717,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>1975</v>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
@@ -12212,8 +12754,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>1976</v>
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
@@ -12247,8 +12791,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>1977</v>
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
@@ -12282,8 +12828,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>1978</v>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
@@ -12317,8 +12865,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>1979</v>
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
@@ -12352,8 +12902,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>1980</v>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
@@ -12387,8 +12939,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>1981</v>
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
@@ -12422,8 +12976,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>1982</v>
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
@@ -12457,8 +13013,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>1983</v>
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
@@ -12492,8 +13050,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>1984</v>
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
@@ -12527,8 +13087,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>1985</v>
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
@@ -12562,8 +13124,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>1986</v>
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
@@ -12597,8 +13161,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>1987</v>
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
@@ -12632,8 +13198,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>1988</v>
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
@@ -12667,8 +13235,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>1989</v>
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
@@ -12702,8 +13272,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>1990</v>
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
@@ -12737,8 +13309,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>1991</v>
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
       </c>
       <c r="B33" t="n">
         <v>36.560001373291</v>
@@ -12776,8 +13350,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>1992</v>
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
       </c>
       <c r="B34" t="n">
         <v>36.189998626709</v>
@@ -12815,8 +13391,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>1993</v>
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
       </c>
       <c r="B35" t="n">
         <v>36.0699996948242</v>
@@ -12854,8 +13432,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>1994</v>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
       </c>
       <c r="B36" t="n">
         <v>35.4199981689453</v>
@@ -12893,8 +13473,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>1995</v>
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
       </c>
       <c r="B37" t="n">
         <v>34.6699981689453</v>
@@ -12932,8 +13514,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>1996</v>
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
       </c>
       <c r="B38" t="n">
         <v>32.9300003051758</v>
@@ -12975,8 +13559,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>1997</v>
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
       </c>
       <c r="B39" t="n">
         <v>33.3199996948242</v>
@@ -13018,8 +13604,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>1998</v>
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
       </c>
       <c r="B40" t="n">
         <v>33.0299987792969</v>
@@ -13061,8 +13649,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>1999</v>
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
       </c>
       <c r="B41" t="n">
         <v>32.3199996948242</v>
@@ -13104,8 +13694,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>2000</v>
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
       </c>
       <c r="B42" t="n">
         <v>31.0900001525879</v>
@@ -13149,8 +13741,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>2001</v>
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
       </c>
       <c r="B43" t="n">
         <v>30.0699996948242</v>
@@ -13194,8 +13788,10 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>2002</v>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
       </c>
       <c r="B44" t="n">
         <v>29.2700004577637</v>
@@ -13239,8 +13835,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>2003</v>
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
       </c>
       <c r="B45" t="n">
         <v>29.3400001525879</v>
@@ -13284,8 +13882,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>2004</v>
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
       </c>
       <c r="B46" t="n">
         <v>28.3500003814697</v>
@@ -13329,8 +13929,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>2005</v>
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="B47" t="n">
         <v>26.2000007629395</v>
@@ -13374,8 +13976,10 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>2006</v>
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
       </c>
       <c r="B48" t="n">
         <v>27.2399997711182</v>
@@ -13421,8 +14025,10 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>2007</v>
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
       </c>
       <c r="B49" t="n">
         <v>27.4200000762939</v>
@@ -13468,8 +14074,10 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>2008</v>
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
       </c>
       <c r="B50" t="n">
         <v>28.2000007629395</v>
@@ -13515,8 +14123,10 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>2009</v>
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
       </c>
       <c r="B51" t="n">
         <v>27.7199993133545</v>
@@ -13562,8 +14172,10 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>2010</v>
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="B52" t="n">
         <v>26.2199993133545</v>
@@ -13609,8 +14221,10 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>2011</v>
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
       </c>
       <c r="B53" t="n">
         <v>25.1900005340576</v>
@@ -13656,8 +14270,10 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>2012</v>
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
       </c>
       <c r="B54" t="n">
         <v>24.6299991607666</v>
@@ -13703,8 +14319,10 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>2013</v>
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
       </c>
       <c r="B55" t="n">
         <v>23.5</v>
@@ -13750,8 +14368,10 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>2014</v>
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
       </c>
       <c r="B56" t="n">
         <v>21.5100002288818</v>
@@ -13797,8 +14417,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>2015</v>
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
       </c>
       <c r="B57" t="n">
         <v>21.0699996948242</v>
@@ -13844,8 +14466,10 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>2016</v>
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
       </c>
       <c r="B58" t="n">
         <v>20.4400005340576</v>
@@ -13891,8 +14515,10 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>2017</v>
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="B59" t="n">
         <v>19.8700008392334</v>
@@ -13938,8 +14564,10 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>2018</v>
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B60" t="n">
         <v>19.3400001525879</v>
@@ -13985,8 +14613,10 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>2019</v>
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B61" t="n">
         <v>18.8299999237061</v>
@@ -14032,8 +14662,10 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>2020</v>
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
@@ -14071,8 +14703,10 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>2021</v>
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
@@ -14196,8 +14830,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>1997</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>34.7400016784668</v>
@@ -14239,8 +14875,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1998</v>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>34.5800018310547</v>
@@ -14282,8 +14920,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>1999</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>34.4199981689453</v>
@@ -14325,8 +14965,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>2000</v>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>34.2299995422363</v>
@@ -14370,8 +15012,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>2001</v>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>33.689998626709</v>
@@ -14415,8 +15059,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>2002</v>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>32.7000007629395</v>
@@ -14460,8 +15106,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>2003</v>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>32.4099998474121</v>
@@ -14505,8 +15153,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>2004</v>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>32.4799995422363</v>
@@ -14550,8 +15200,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>2005</v>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>32.4099998474121</v>
@@ -14595,8 +15247,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>2006</v>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>32.7200012207031</v>
@@ -14640,8 +15294,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>2007</v>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>32.3800010681152</v>
@@ -14685,8 +15341,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>2008</v>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>31.6299991607666</v>
@@ -14730,8 +15388,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>2009</v>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>29.9799995422363</v>
@@ -14775,8 +15435,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>2010</v>
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>29.4400005340576</v>
@@ -14820,8 +15482,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>2011</v>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>29.2099990844727</v>
@@ -14865,8 +15529,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>2012</v>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>29.1200008392334</v>
@@ -14910,8 +15576,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>2013</v>
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>29.4599990844727</v>
@@ -14955,8 +15623,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>2014</v>
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>29.4599990844727</v>
@@ -15000,8 +15670,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>2015</v>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>29.2299995422363</v>
@@ -15045,8 +15717,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>2016</v>
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>29.1900005340576</v>
@@ -15090,8 +15764,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>2017</v>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>29.1299991607666</v>
@@ -15135,8 +15811,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>2018</v>
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B23" t="n">
         <v>29.3600006103516</v>
@@ -15180,8 +15858,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>2019</v>
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B24" t="n">
         <v>29.3299999237061</v>
@@ -15225,8 +15905,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>2020</v>
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
